--- a/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ASAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F8" s="3">
         <v>25100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>31200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>38600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>43400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>49200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>50900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F14" s="3">
         <v>53900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>67200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G15" s="3">
         <v>3000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3500</v>
       </c>
       <c r="H15" s="3">
         <v>3100</v>
       </c>
       <c r="I15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F17" s="3">
         <v>88000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>39300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>109600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>52300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>48500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-62900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-74600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,124 +1075,150 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>16100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-72400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1800</v>
       </c>
       <c r="I22" s="3">
         <v>1700</v>
       </c>
       <c r="J22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-73400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-77200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,22 +1232,28 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-73500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-77200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-73500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-77200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>9400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-16100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-73500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-77200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-73500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-77200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F41" s="3">
         <v>20100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>28200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>54900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>60100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>60500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>67900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1601,28 +1786,34 @@
         <v>4600</v>
       </c>
       <c r="E43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F46" s="3">
         <v>29900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>38000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>65300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>73000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>55400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>73300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>78600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>3400</v>
       </c>
       <c r="F47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F49" s="3">
         <v>51000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>105900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>106400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>173800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>171200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>154400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>153500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F54" s="3">
         <v>90700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>154500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>183100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>259100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>240000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>241900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>245700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>232200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F59" s="3">
         <v>22800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>25900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>33900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>39300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>37400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>34300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>45500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F61" s="3">
         <v>55900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>61800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>82300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>82000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>81700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>81200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>80500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>85200</v>
+      </c>
+      <c r="F66" s="3">
         <v>86800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>96900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>118000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>124600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>122200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>148900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>148400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>144100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-583400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-575900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-531500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-458000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-446400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-369100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-361000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-373300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-367600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-363900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>57600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>65200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>134500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>117800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>92900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>97200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-73500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-77200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G83" s="3">
         <v>3000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3500</v>
       </c>
       <c r="H83" s="3">
         <v>3100</v>
       </c>
       <c r="I83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-18100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-26700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ASAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>33000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>53900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>67200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3600</v>
       </c>
       <c r="F15" s="3">
         <v>3600</v>
       </c>
       <c r="G15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E17" s="3">
         <v>23100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>109600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-74600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-68700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-72400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,69 +1196,75 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1700</v>
       </c>
       <c r="I22" s="3">
         <v>1700</v>
       </c>
       <c r="J22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1900</v>
       </c>
       <c r="M22" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-73400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-77200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,11 +1284,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1250,10 +1296,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-77200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-77200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-77200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-77200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,183 +1943,201 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E46" s="3">
         <v>15200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>65300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3100</v>
       </c>
       <c r="K47" s="3">
         <v>3100</v>
       </c>
       <c r="L47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M47" s="3">
         <v>2800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
         <v>16400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>51000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>105900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>106400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>173800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>171200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>154400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>153500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E54" s="3">
         <v>38700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>183100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>259100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>240000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>241900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>245700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E59" s="3">
         <v>20100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E60" s="3">
         <v>25500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>54700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>55900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>61800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>82300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>82000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>81700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>85200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>118000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>122200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>144100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-596300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-583400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-575900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-531500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-458000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-446400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-369100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-361000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-373300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-367600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-363900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-43300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-37100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>117800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>92900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-77200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3600</v>
       </c>
       <c r="F83" s="3">
         <v>3600</v>
       </c>
       <c r="G83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2400</v>
       </c>
       <c r="I91" s="3">
         <v>-2400</v>
@@ -3319,16 +3540,19 @@
         <v>-2400</v>
       </c>
       <c r="K91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,34 +3636,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-8100</v>
       </c>
       <c r="F102" s="3">
         <v>-8100</v>
       </c>
       <c r="G102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-26700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ASAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E8" s="3">
         <v>14000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>9500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>33000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>53900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>67200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,37 +1000,40 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3600</v>
       </c>
       <c r="G15" s="3">
         <v>3600</v>
       </c>
       <c r="H15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>109600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-74600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,160 +1144,173 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-68700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-72400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1700</v>
       </c>
       <c r="J22" s="3">
         <v>1700</v>
       </c>
       <c r="K22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1900</v>
       </c>
       <c r="N22" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-73400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-77200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1287,11 +1333,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1299,10 +1345,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-77200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-73500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-77200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-73500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-77200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-73500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-77200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,198 +2042,216 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
         <v>12600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>65300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3100</v>
       </c>
       <c r="L47" s="3">
         <v>3100</v>
       </c>
       <c r="M47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N47" s="3">
         <v>2800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>51000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>105900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>106400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>173800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>171200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>154400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>153500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,37 +2341,40 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
       </c>
       <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E54" s="3">
         <v>25400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>183100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>259100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>240000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>241900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>245700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>232200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,160 +2488,173 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E58" s="3">
         <v>56200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E59" s="3">
         <v>18600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E60" s="3">
         <v>78600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,75 +2662,81 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>54700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>53900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>55900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>61800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>82300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>82000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E66" s="3">
         <v>80300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>85200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>86800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>118000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>122200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>144100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-601600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-596300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-583400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-575900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-531500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-458000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-446400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-369100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-361000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-373300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-367600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-363900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-55000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-43300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-37100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>65200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>134500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>117800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>92900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-73500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-77200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,37 +3439,40 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3600</v>
       </c>
       <c r="G83" s="3">
         <v>3600</v>
       </c>
       <c r="H83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2400</v>
       </c>
       <c r="J91" s="3">
         <v>-2400</v>
@@ -3543,16 +3764,19 @@
         <v>-2400</v>
       </c>
       <c r="L91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,34 +3869,37 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-8100</v>
       </c>
       <c r="G102" s="3">
         <v>-8100</v>
       </c>
       <c r="H102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-26700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7600</v>
       </c>
     </row>
